--- a/automatedExcel/VALIDACION DE CAMPOS.xlsx
+++ b/automatedExcel/VALIDACION DE CAMPOS.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PythonProjects\cnelSapWebMidd\automatedExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi_jh\PythonProjects\cnelSapWebMidd\automatedExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED90099-EF95-412B-9B41-AC7284D08477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25DE2A-CBB3-4AA9-8254-EBF19BA8FABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F968AD1B-773D-4E14-9609-13853A0F6A9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F968AD1B-773D-4E14-9609-13853A0F6A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="271">
   <si>
     <t>DCDE</t>
   </si>
@@ -344,12 +345,6 @@
     <t>oFormContTraIns</t>
   </si>
   <si>
-    <t>oFormElemTraInsL00</t>
-  </si>
-  <si>
-    <t>oFormElemTraInsL10</t>
-  </si>
-  <si>
     <t>CLASE</t>
   </si>
   <si>
@@ -369,6 +364,492 @@
   </si>
   <si>
     <t>PROPIEDAD DE OBJETO OENTRY</t>
+  </si>
+  <si>
+    <t>Tc1I</t>
+  </si>
+  <si>
+    <t>Tc2I</t>
+  </si>
+  <si>
+    <t>Tc3I</t>
+  </si>
+  <si>
+    <t>Tp1I</t>
+  </si>
+  <si>
+    <t>Tp2I</t>
+  </si>
+  <si>
+    <t>Tp3I</t>
+  </si>
+  <si>
+    <t>TmixI</t>
+  </si>
+  <si>
+    <t>MOSecPec</t>
+  </si>
+  <si>
+    <t>TipoEquipoCo</t>
+  </si>
+  <si>
+    <t>MarcaCo</t>
+  </si>
+  <si>
+    <t>ModeloCo</t>
+  </si>
+  <si>
+    <t>PotenciaCo</t>
+  </si>
+  <si>
+    <t>NroSerieCo</t>
+  </si>
+  <si>
+    <t>TipoEquipoCa</t>
+  </si>
+  <si>
+    <t>MarcaCa</t>
+  </si>
+  <si>
+    <t>ModeloCa</t>
+  </si>
+  <si>
+    <t>PotenciaCa</t>
+  </si>
+  <si>
+    <t>NroSerieCa</t>
+  </si>
+  <si>
+    <t>MOFormTraIns</t>
+  </si>
+  <si>
+    <t>MOSecDanoequi</t>
+  </si>
+  <si>
+    <t>FecRestSrv</t>
+  </si>
+  <si>
+    <t>HorRestSrv</t>
+  </si>
+  <si>
+    <t>TipoConductorCe</t>
+  </si>
+  <si>
+    <t>TomacorienteCe</t>
+  </si>
+  <si>
+    <t>ProteccionCe</t>
+  </si>
+  <si>
+    <t>LongitudCe</t>
+  </si>
+  <si>
+    <t>CredMesplazoCe</t>
+  </si>
+  <si>
+    <t>MontoCe</t>
+  </si>
+  <si>
+    <t>FecIniInsCir</t>
+  </si>
+  <si>
+    <t>FecFinInsCir</t>
+  </si>
+  <si>
+    <t>CircInstClte</t>
+  </si>
+  <si>
+    <t>EstInstInt</t>
+  </si>
+  <si>
+    <t>MOSecCnr</t>
+  </si>
+  <si>
+    <t>ORDENCNR</t>
+  </si>
+  <si>
+    <t>EMER</t>
+  </si>
+  <si>
+    <t>INSP</t>
+  </si>
+  <si>
+    <t>INSP != '032'</t>
+  </si>
+  <si>
+    <t>MOFormMedRet</t>
+  </si>
+  <si>
+    <t>NroEquipoR</t>
+  </si>
+  <si>
+    <t>LecEnerActR</t>
+  </si>
+  <si>
+    <t>LecEnerActTaraR</t>
+  </si>
+  <si>
+    <t>LecEnerActTarbR</t>
+  </si>
+  <si>
+    <t>LecEnerActTarcR</t>
+  </si>
+  <si>
+    <t>LecEnerActTardR</t>
+  </si>
+  <si>
+    <t>DemMaxTaraR</t>
+  </si>
+  <si>
+    <t>DemMaxTarbR</t>
+  </si>
+  <si>
+    <t>DemMaxTarcR</t>
+  </si>
+  <si>
+    <t>DemMaxTardR</t>
+  </si>
+  <si>
+    <t>LecEnerReaR</t>
+  </si>
+  <si>
+    <t>MOFormTraRet</t>
+  </si>
+  <si>
+    <t>Tc1R</t>
+  </si>
+  <si>
+    <t>Tc2R</t>
+  </si>
+  <si>
+    <t>Tc3R</t>
+  </si>
+  <si>
+    <t>Tp1R</t>
+  </si>
+  <si>
+    <t>Tp2R</t>
+  </si>
+  <si>
+    <t>Tp3R</t>
+  </si>
+  <si>
+    <t>TmixR</t>
+  </si>
+  <si>
+    <t>INSP == '032'</t>
+  </si>
+  <si>
+    <t>Zposte</t>
+  </si>
+  <si>
+    <t>editable True</t>
+  </si>
+  <si>
+    <t>MOGridName2</t>
+  </si>
+  <si>
+    <t>GridName</t>
+  </si>
+  <si>
+    <t>MOGridLevel</t>
+  </si>
+  <si>
+    <t>GridLevel</t>
+  </si>
+  <si>
+    <t>MOZutmy</t>
+  </si>
+  <si>
+    <t>MOZutmx</t>
+  </si>
+  <si>
+    <t>Zzlon</t>
+  </si>
+  <si>
+    <t>Zzlat</t>
+  </si>
+  <si>
+    <t>INST</t>
+  </si>
+  <si>
+    <t>INTE</t>
+  </si>
+  <si>
+    <t>NLEC</t>
+  </si>
+  <si>
+    <t>SOLI</t>
+  </si>
+  <si>
+    <t>ORDENMATRET</t>
+  </si>
+  <si>
+    <t>Aufnr</t>
+  </si>
+  <si>
+    <t>Usrcons</t>
+  </si>
+  <si>
+    <t>Pascons</t>
+  </si>
+  <si>
+    <t>UsrstCcla</t>
+  </si>
+  <si>
+    <t>UsrstScla</t>
+  </si>
+  <si>
+    <t>Tarverif</t>
+  </si>
+  <si>
+    <t>Qmgrp</t>
+  </si>
+  <si>
+    <t>Qmcod</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>HoraIniTrab</t>
+  </si>
+  <si>
+    <t>FecEjecTrab</t>
+  </si>
+  <si>
+    <t>HoraFinTrab</t>
+  </si>
+  <si>
+    <t>CargaNormVer</t>
+  </si>
+  <si>
+    <t>CargaFlucVer</t>
+  </si>
+  <si>
+    <t>TipoAcom</t>
+  </si>
+  <si>
+    <t>CalAcom</t>
+  </si>
+  <si>
+    <t>LongAcom</t>
+  </si>
+  <si>
+    <t>LongFachada</t>
+  </si>
+  <si>
+    <t>FasesAcom</t>
+  </si>
+  <si>
+    <t>MatAcom</t>
+  </si>
+  <si>
+    <t>DemAcom</t>
+  </si>
+  <si>
+    <t>FactDiver</t>
+  </si>
+  <si>
+    <t>CalAcomRet</t>
+  </si>
+  <si>
+    <t>TipoAcomRet</t>
+  </si>
+  <si>
+    <t>LongAcomRet</t>
+  </si>
+  <si>
+    <t>ClaseRed</t>
+  </si>
+  <si>
+    <t>TipoRed</t>
+  </si>
+  <si>
+    <t>NroProyecto</t>
+  </si>
+  <si>
+    <t>OrigFina</t>
+  </si>
+  <si>
+    <t>SecFasesAcom</t>
+  </si>
+  <si>
+    <t>UbicTab</t>
+  </si>
+  <si>
+    <t>NroTab</t>
+  </si>
+  <si>
+    <t>DenTab</t>
+  </si>
+  <si>
+    <t>ConstTab</t>
+  </si>
+  <si>
+    <t>ProtPpalTab</t>
+  </si>
+  <si>
+    <t>CargaProt</t>
+  </si>
+  <si>
+    <t>CasTab</t>
+  </si>
+  <si>
+    <t>ProtInd</t>
+  </si>
+  <si>
+    <t>TipoProt</t>
+  </si>
+  <si>
+    <t>FasesMed</t>
+  </si>
+  <si>
+    <t>SecFases</t>
+  </si>
+  <si>
+    <t>AccionMedidor</t>
+  </si>
+  <si>
+    <t>UbicMedidor</t>
+  </si>
+  <si>
+    <t>MediAnt</t>
+  </si>
+  <si>
+    <t>MediPost</t>
+  </si>
+  <si>
+    <t>PerdTrans</t>
+  </si>
+  <si>
+    <t>TabCentral</t>
+  </si>
+  <si>
+    <t>NroEquipoE</t>
+  </si>
+  <si>
+    <t>LecEnerActE</t>
+  </si>
+  <si>
+    <t>LecEnerActTaraE</t>
+  </si>
+  <si>
+    <t>LecEnerActTarbE</t>
+  </si>
+  <si>
+    <t>LecEnerActTarcE</t>
+  </si>
+  <si>
+    <t>LecEnerActTardE</t>
+  </si>
+  <si>
+    <t>DemMaxTaraE</t>
+  </si>
+  <si>
+    <t>DemMaxTarbE</t>
+  </si>
+  <si>
+    <t>DemMaxTarcE</t>
+  </si>
+  <si>
+    <t>DemMaxTardE</t>
+  </si>
+  <si>
+    <t>LecEnerReaE</t>
+  </si>
+  <si>
+    <t>LecEnerActTaraI</t>
+  </si>
+  <si>
+    <t>Tc1E</t>
+  </si>
+  <si>
+    <t>Tc2E</t>
+  </si>
+  <si>
+    <t>Tc3E</t>
+  </si>
+  <si>
+    <t>Tp1E</t>
+  </si>
+  <si>
+    <t>Tp2E</t>
+  </si>
+  <si>
+    <t>Tp3E</t>
+  </si>
+  <si>
+    <t>TmixE</t>
+  </si>
+  <si>
+    <t>Tc1flagE</t>
+  </si>
+  <si>
+    <t>Tc2flagE</t>
+  </si>
+  <si>
+    <t>Tc3flagE</t>
+  </si>
+  <si>
+    <t>Tp1flagE</t>
+  </si>
+  <si>
+    <t>Tp2flagE</t>
+  </si>
+  <si>
+    <t>Tp3flagE</t>
+  </si>
+  <si>
+    <t>TmixflagE</t>
+  </si>
+  <si>
+    <t>FecImpre</t>
+  </si>
+  <si>
+    <t>HoraImpre</t>
+  </si>
+  <si>
+    <t>UpdSellos</t>
+  </si>
+  <si>
+    <t>UpdDanEqui</t>
+  </si>
+  <si>
+    <t>UpdMatret</t>
+  </si>
+  <si>
+    <t>UpdCompo</t>
+  </si>
+  <si>
+    <t>UpdOper</t>
+  </si>
+  <si>
+    <t>UpdServ</t>
+  </si>
+  <si>
+    <t>ORDENSELLOS</t>
+  </si>
+  <si>
+    <t>ORDENDANEQUI</t>
+  </si>
+  <si>
+    <t>ORDENCOMPO</t>
+  </si>
+  <si>
+    <t>ORDENOPER</t>
+  </si>
+  <si>
+    <t>ORDENSERV</t>
+  </si>
+  <si>
+    <t>selección</t>
+  </si>
+  <si>
+    <t>habilitado</t>
+  </si>
+  <si>
+    <t>no habilitado</t>
   </si>
 </sst>
 </file>
@@ -390,12 +871,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -410,9 +903,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,39 +1243,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C65D7-C7E8-49C9-B484-D89C17028A87}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J27"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337:A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -789,29 +1286,29 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
@@ -826,24 +1323,24 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
@@ -858,24 +1355,24 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
@@ -890,24 +1387,24 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
@@ -922,24 +1419,24 @@
       <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
@@ -954,24 +1451,24 @@
       <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
@@ -986,24 +1483,24 @@
       <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
@@ -1018,24 +1515,24 @@
       <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
@@ -1050,24 +1547,24 @@
       <c r="I9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F10" t="s">
@@ -1082,24 +1579,24 @@
       <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
@@ -1114,24 +1611,24 @@
       <c r="I11" t="s">
         <v>53</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F12" t="s">
@@ -1146,24 +1643,24 @@
       <c r="I12" t="s">
         <v>55</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F13" t="s">
@@ -1178,24 +1675,24 @@
       <c r="I13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F14" t="s">
@@ -1210,24 +1707,24 @@
       <c r="I14" t="s">
         <v>61</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
@@ -1242,24 +1739,24 @@
       <c r="I15" t="s">
         <v>65</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
@@ -1274,18 +1771,18 @@
       <c r="I16" t="s">
         <v>67</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F17" t="s">
@@ -1300,18 +1797,18 @@
       <c r="I17" t="s">
         <v>72</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F18" t="s">
@@ -1326,18 +1823,18 @@
       <c r="I18" t="s">
         <v>73</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
@@ -1352,18 +1849,18 @@
       <c r="I19" t="s">
         <v>77</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F20" t="s">
@@ -1378,18 +1875,18 @@
       <c r="I20" t="s">
         <v>78</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F21" t="s">
@@ -1404,18 +1901,18 @@
       <c r="I21" t="s">
         <v>82</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F22" t="s">
@@ -1430,18 +1927,18 @@
       <c r="I22" t="s">
         <v>84</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F23" t="s">
@@ -1456,18 +1953,18 @@
       <c r="I23" t="s">
         <v>90</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F24" t="s">
@@ -1482,18 +1979,18 @@
       <c r="I24" t="s">
         <v>88</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F25" t="s">
@@ -1508,18 +2005,18 @@
       <c r="I25" t="s">
         <v>96</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F26" t="s">
@@ -1534,18 +2031,18 @@
       <c r="I26" t="s">
         <v>94</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F27" t="s">
@@ -1560,39 +2057,7885 @@
       <c r="I27" t="s">
         <v>98</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E28" t="s">
-        <v>101</v>
+      <c r="E28" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="F28" t="s">
         <v>101</v>
       </c>
-      <c r="G28" t="s">
-        <v>102</v>
+      <c r="J28" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
-        <v>103</v>
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s">
+        <v>44</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>49</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" t="s">
+        <v>53</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" t="s">
+        <v>59</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>58</v>
+      </c>
+      <c r="I78" t="s">
+        <v>61</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>63</v>
+      </c>
+      <c r="I79" t="s">
+        <v>65</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80" t="s">
+        <v>67</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" t="s">
+        <v>20</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>23</v>
+      </c>
+      <c r="I115" t="s">
+        <v>25</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116" t="s">
+        <v>27</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" t="s">
+        <v>39</v>
+      </c>
+      <c r="I117" t="s">
+        <v>41</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" t="s">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s">
+        <v>44</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F119" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" t="s">
+        <v>45</v>
+      </c>
+      <c r="I119" t="s">
+        <v>48</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" t="s">
+        <v>46</v>
+      </c>
+      <c r="I120" t="s">
+        <v>49</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" t="s">
+        <v>51</v>
+      </c>
+      <c r="I121" t="s">
+        <v>53</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
+        <v>52</v>
+      </c>
+      <c r="I122" t="s">
+        <v>55</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>57</v>
+      </c>
+      <c r="I123" t="s">
+        <v>59</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>58</v>
+      </c>
+      <c r="I124" t="s">
+        <v>61</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
+        <v>63</v>
+      </c>
+      <c r="I125" t="s">
+        <v>65</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F126" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
+        <v>64</v>
+      </c>
+      <c r="I126" t="s">
+        <v>67</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" t="s">
+        <v>32</v>
+      </c>
+      <c r="G127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" t="s">
+        <v>69</v>
+      </c>
+      <c r="I127" t="s">
+        <v>72</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128" t="s">
+        <v>32</v>
+      </c>
+      <c r="G128" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128" t="s">
+        <v>70</v>
+      </c>
+      <c r="I128" t="s">
+        <v>73</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F129" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129" t="s">
+        <v>77</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130" t="s">
+        <v>78</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F131" t="s">
+        <v>32</v>
+      </c>
+      <c r="G131" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" t="s">
+        <v>80</v>
+      </c>
+      <c r="I131" t="s">
+        <v>82</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F132" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s">
+        <v>35</v>
+      </c>
+      <c r="H132" t="s">
+        <v>81</v>
+      </c>
+      <c r="I132" t="s">
+        <v>84</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133" t="s">
+        <v>86</v>
+      </c>
+      <c r="I133" t="s">
+        <v>90</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" t="s">
+        <v>87</v>
+      </c>
+      <c r="I134" t="s">
+        <v>88</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F135" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135" t="s">
+        <v>37</v>
+      </c>
+      <c r="H135" t="s">
+        <v>92</v>
+      </c>
+      <c r="I135" t="s">
+        <v>96</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F136" t="s">
+        <v>32</v>
+      </c>
+      <c r="G136" t="s">
+        <v>37</v>
+      </c>
+      <c r="H136" t="s">
+        <v>93</v>
+      </c>
+      <c r="I136" t="s">
+        <v>94</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" t="s">
+        <v>32</v>
+      </c>
+      <c r="G137" t="s">
+        <v>38</v>
+      </c>
+      <c r="H137" t="s">
+        <v>99</v>
+      </c>
+      <c r="I137" t="s">
+        <v>98</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F138" t="s">
+        <v>101</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F139" t="s">
+        <v>101</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F140" t="s">
+        <v>101</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F141" t="s">
+        <v>101</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F142" t="s">
+        <v>101</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F143" t="s">
+        <v>101</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F144" t="s">
+        <v>101</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" t="s">
+        <v>6</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>15</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F200" t="s">
+        <v>5</v>
+      </c>
+      <c r="G200" t="s">
+        <v>7</v>
+      </c>
+      <c r="H200" t="s">
+        <v>17</v>
+      </c>
+      <c r="I200" t="s">
+        <v>20</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F201" t="s">
+        <v>5</v>
+      </c>
+      <c r="G201" t="s">
+        <v>7</v>
+      </c>
+      <c r="H201" t="s">
+        <v>18</v>
+      </c>
+      <c r="I201" t="s">
+        <v>22</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F202" t="s">
+        <v>5</v>
+      </c>
+      <c r="G202" t="s">
+        <v>8</v>
+      </c>
+      <c r="H202" t="s">
+        <v>23</v>
+      </c>
+      <c r="I202" t="s">
+        <v>25</v>
+      </c>
+      <c r="J202" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F203" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" t="s">
+        <v>8</v>
+      </c>
+      <c r="H203" t="s">
+        <v>24</v>
+      </c>
+      <c r="I203" t="s">
+        <v>27</v>
+      </c>
+      <c r="J203" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F204" t="s">
+        <v>5</v>
+      </c>
+      <c r="G204" t="s">
+        <v>9</v>
+      </c>
+      <c r="H204" t="s">
+        <v>39</v>
+      </c>
+      <c r="I204" t="s">
+        <v>41</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F205" t="s">
+        <v>5</v>
+      </c>
+      <c r="G205" t="s">
+        <v>9</v>
+      </c>
+      <c r="H205" t="s">
+        <v>40</v>
+      </c>
+      <c r="I205" t="s">
+        <v>44</v>
+      </c>
+      <c r="J205" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F206" t="s">
+        <v>5</v>
+      </c>
+      <c r="G206" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206" t="s">
+        <v>45</v>
+      </c>
+      <c r="I206" t="s">
+        <v>48</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F207" t="s">
+        <v>5</v>
+      </c>
+      <c r="G207" t="s">
+        <v>10</v>
+      </c>
+      <c r="H207" t="s">
+        <v>46</v>
+      </c>
+      <c r="I207" t="s">
+        <v>49</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F208" t="s">
+        <v>5</v>
+      </c>
+      <c r="G208" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" t="s">
+        <v>51</v>
+      </c>
+      <c r="I208" t="s">
+        <v>53</v>
+      </c>
+      <c r="J208" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F209" t="s">
+        <v>5</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" t="s">
+        <v>52</v>
+      </c>
+      <c r="I209" t="s">
+        <v>55</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F210" t="s">
+        <v>5</v>
+      </c>
+      <c r="G210" t="s">
+        <v>12</v>
+      </c>
+      <c r="H210" t="s">
+        <v>57</v>
+      </c>
+      <c r="I210" t="s">
+        <v>59</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F211" t="s">
+        <v>5</v>
+      </c>
+      <c r="G211" t="s">
+        <v>12</v>
+      </c>
+      <c r="H211" t="s">
+        <v>58</v>
+      </c>
+      <c r="I211" t="s">
+        <v>61</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F212" t="s">
+        <v>5</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
+        <v>63</v>
+      </c>
+      <c r="I212" t="s">
+        <v>65</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F213" t="s">
+        <v>5</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
+      <c r="H213" t="s">
+        <v>64</v>
+      </c>
+      <c r="I213" t="s">
+        <v>67</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J214" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J217" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J218" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J220" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J221" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J222" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J223" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J224" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J232" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J234" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J236" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J237" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F245" t="s">
+        <v>5</v>
+      </c>
+      <c r="G245" t="s">
+        <v>6</v>
+      </c>
+      <c r="H245" t="s">
+        <v>14</v>
+      </c>
+      <c r="I245" t="s">
+        <v>15</v>
+      </c>
+      <c r="J245" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F246" t="s">
+        <v>5</v>
+      </c>
+      <c r="G246" t="s">
+        <v>7</v>
+      </c>
+      <c r="H246" t="s">
+        <v>17</v>
+      </c>
+      <c r="I246" t="s">
+        <v>20</v>
+      </c>
+      <c r="J246" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F247" t="s">
+        <v>5</v>
+      </c>
+      <c r="G247" t="s">
+        <v>7</v>
+      </c>
+      <c r="H247" t="s">
+        <v>18</v>
+      </c>
+      <c r="I247" t="s">
+        <v>22</v>
+      </c>
+      <c r="J247" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F248" t="s">
+        <v>5</v>
+      </c>
+      <c r="G248" t="s">
+        <v>8</v>
+      </c>
+      <c r="H248" t="s">
+        <v>23</v>
+      </c>
+      <c r="I248" t="s">
+        <v>25</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F249" t="s">
+        <v>5</v>
+      </c>
+      <c r="G249" t="s">
+        <v>8</v>
+      </c>
+      <c r="H249" t="s">
+        <v>24</v>
+      </c>
+      <c r="I249" t="s">
+        <v>27</v>
+      </c>
+      <c r="J249" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F250" t="s">
+        <v>5</v>
+      </c>
+      <c r="G250" t="s">
+        <v>9</v>
+      </c>
+      <c r="H250" t="s">
+        <v>39</v>
+      </c>
+      <c r="I250" t="s">
+        <v>41</v>
+      </c>
+      <c r="J250" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F251" t="s">
+        <v>5</v>
+      </c>
+      <c r="G251" t="s">
+        <v>9</v>
+      </c>
+      <c r="H251" t="s">
+        <v>40</v>
+      </c>
+      <c r="I251" t="s">
+        <v>44</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F252" t="s">
+        <v>5</v>
+      </c>
+      <c r="G252" t="s">
+        <v>10</v>
+      </c>
+      <c r="H252" t="s">
+        <v>45</v>
+      </c>
+      <c r="I252" t="s">
+        <v>48</v>
+      </c>
+      <c r="J252" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F253" t="s">
+        <v>5</v>
+      </c>
+      <c r="G253" t="s">
+        <v>10</v>
+      </c>
+      <c r="H253" t="s">
+        <v>46</v>
+      </c>
+      <c r="I253" t="s">
+        <v>49</v>
+      </c>
+      <c r="J253" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F254" t="s">
+        <v>5</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" t="s">
+        <v>51</v>
+      </c>
+      <c r="I254" t="s">
+        <v>53</v>
+      </c>
+      <c r="J254" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F255" t="s">
+        <v>5</v>
+      </c>
+      <c r="G255" t="s">
+        <v>11</v>
+      </c>
+      <c r="H255" t="s">
+        <v>52</v>
+      </c>
+      <c r="I255" t="s">
+        <v>55</v>
+      </c>
+      <c r="J255" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F256" t="s">
+        <v>5</v>
+      </c>
+      <c r="G256" t="s">
+        <v>12</v>
+      </c>
+      <c r="H256" t="s">
+        <v>57</v>
+      </c>
+      <c r="I256" t="s">
+        <v>59</v>
+      </c>
+      <c r="J256" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F257" t="s">
+        <v>5</v>
+      </c>
+      <c r="G257" t="s">
+        <v>12</v>
+      </c>
+      <c r="H257" t="s">
+        <v>58</v>
+      </c>
+      <c r="I257" t="s">
+        <v>61</v>
+      </c>
+      <c r="J257" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258" t="s">
+        <v>2</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F258" t="s">
+        <v>5</v>
+      </c>
+      <c r="G258" t="s">
+        <v>13</v>
+      </c>
+      <c r="H258" t="s">
+        <v>63</v>
+      </c>
+      <c r="I258" t="s">
+        <v>65</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F259" t="s">
+        <v>5</v>
+      </c>
+      <c r="G259" t="s">
+        <v>13</v>
+      </c>
+      <c r="H259" t="s">
+        <v>64</v>
+      </c>
+      <c r="I259" t="s">
+        <v>67</v>
+      </c>
+      <c r="J259" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J262" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J263" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J264" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J265" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J266" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J267" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J274" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J275" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J276" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J277" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J279" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J280" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J281" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J282" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J283" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J284" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J285" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J286" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J287" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J288" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J289" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J290" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>2</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F291" t="s">
+        <v>5</v>
+      </c>
+      <c r="G291" t="s">
+        <v>6</v>
+      </c>
+      <c r="H291" t="s">
+        <v>14</v>
+      </c>
+      <c r="I291" t="s">
+        <v>15</v>
+      </c>
+      <c r="J291" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
+        <v>2</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F292" t="s">
+        <v>5</v>
+      </c>
+      <c r="G292" t="s">
+        <v>7</v>
+      </c>
+      <c r="H292" t="s">
+        <v>17</v>
+      </c>
+      <c r="I292" t="s">
+        <v>20</v>
+      </c>
+      <c r="J292" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F293" t="s">
+        <v>5</v>
+      </c>
+      <c r="G293" t="s">
+        <v>7</v>
+      </c>
+      <c r="H293" t="s">
+        <v>18</v>
+      </c>
+      <c r="I293" t="s">
+        <v>22</v>
+      </c>
+      <c r="J293" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>2</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F294" t="s">
+        <v>5</v>
+      </c>
+      <c r="G294" t="s">
+        <v>8</v>
+      </c>
+      <c r="H294" t="s">
+        <v>23</v>
+      </c>
+      <c r="I294" t="s">
+        <v>25</v>
+      </c>
+      <c r="J294" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>2</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F295" t="s">
+        <v>5</v>
+      </c>
+      <c r="G295" t="s">
+        <v>8</v>
+      </c>
+      <c r="H295" t="s">
+        <v>24</v>
+      </c>
+      <c r="I295" t="s">
+        <v>27</v>
+      </c>
+      <c r="J295" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>2</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F296" t="s">
+        <v>5</v>
+      </c>
+      <c r="G296" t="s">
+        <v>9</v>
+      </c>
+      <c r="H296" t="s">
+        <v>39</v>
+      </c>
+      <c r="I296" t="s">
+        <v>41</v>
+      </c>
+      <c r="J296" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>2</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F297" t="s">
+        <v>5</v>
+      </c>
+      <c r="G297" t="s">
+        <v>9</v>
+      </c>
+      <c r="H297" t="s">
+        <v>40</v>
+      </c>
+      <c r="I297" t="s">
+        <v>44</v>
+      </c>
+      <c r="J297" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>2</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F298" t="s">
+        <v>5</v>
+      </c>
+      <c r="G298" t="s">
+        <v>10</v>
+      </c>
+      <c r="H298" t="s">
+        <v>45</v>
+      </c>
+      <c r="I298" t="s">
+        <v>48</v>
+      </c>
+      <c r="J298" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>2</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F299" t="s">
+        <v>5</v>
+      </c>
+      <c r="G299" t="s">
+        <v>10</v>
+      </c>
+      <c r="H299" t="s">
+        <v>46</v>
+      </c>
+      <c r="I299" t="s">
+        <v>49</v>
+      </c>
+      <c r="J299" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>2</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F300" t="s">
+        <v>5</v>
+      </c>
+      <c r="G300" t="s">
+        <v>11</v>
+      </c>
+      <c r="H300" t="s">
+        <v>51</v>
+      </c>
+      <c r="I300" t="s">
+        <v>53</v>
+      </c>
+      <c r="J300" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>2</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F301" t="s">
+        <v>5</v>
+      </c>
+      <c r="G301" t="s">
+        <v>11</v>
+      </c>
+      <c r="H301" t="s">
+        <v>52</v>
+      </c>
+      <c r="I301" t="s">
+        <v>55</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>2</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F302" t="s">
+        <v>5</v>
+      </c>
+      <c r="G302" t="s">
+        <v>12</v>
+      </c>
+      <c r="H302" t="s">
+        <v>57</v>
+      </c>
+      <c r="I302" t="s">
+        <v>59</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>2</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F303" t="s">
+        <v>5</v>
+      </c>
+      <c r="G303" t="s">
+        <v>12</v>
+      </c>
+      <c r="H303" t="s">
+        <v>58</v>
+      </c>
+      <c r="I303" t="s">
+        <v>61</v>
+      </c>
+      <c r="J303" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>2</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F304" t="s">
+        <v>5</v>
+      </c>
+      <c r="G304" t="s">
+        <v>13</v>
+      </c>
+      <c r="H304" t="s">
+        <v>63</v>
+      </c>
+      <c r="I304" t="s">
+        <v>65</v>
+      </c>
+      <c r="J304" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>2</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F305" t="s">
+        <v>5</v>
+      </c>
+      <c r="G305" t="s">
+        <v>13</v>
+      </c>
+      <c r="H305" t="s">
+        <v>64</v>
+      </c>
+      <c r="I305" t="s">
+        <v>67</v>
+      </c>
+      <c r="J305" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J306" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J307" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J308" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J309" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J310" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J311" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J312" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J313" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J314" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J315" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J316" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J317" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J318" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J319" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J320" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J321" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J322" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J325" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J327" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J328" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J330" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J336" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>2</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F337" t="s">
+        <v>5</v>
+      </c>
+      <c r="G337" t="s">
+        <v>6</v>
+      </c>
+      <c r="H337" t="s">
+        <v>14</v>
+      </c>
+      <c r="I337" t="s">
+        <v>15</v>
+      </c>
+      <c r="J337" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>2</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F338" t="s">
+        <v>5</v>
+      </c>
+      <c r="G338" t="s">
+        <v>7</v>
+      </c>
+      <c r="H338" t="s">
+        <v>17</v>
+      </c>
+      <c r="I338" t="s">
+        <v>20</v>
+      </c>
+      <c r="J338" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>2</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F339" t="s">
+        <v>5</v>
+      </c>
+      <c r="G339" t="s">
+        <v>7</v>
+      </c>
+      <c r="H339" t="s">
+        <v>18</v>
+      </c>
+      <c r="I339" t="s">
+        <v>22</v>
+      </c>
+      <c r="J339" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>2</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F340" t="s">
+        <v>5</v>
+      </c>
+      <c r="G340" t="s">
+        <v>8</v>
+      </c>
+      <c r="H340" t="s">
+        <v>23</v>
+      </c>
+      <c r="I340" t="s">
+        <v>25</v>
+      </c>
+      <c r="J340" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D341" t="s">
+        <v>2</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F341" t="s">
+        <v>5</v>
+      </c>
+      <c r="G341" t="s">
+        <v>8</v>
+      </c>
+      <c r="H341" t="s">
+        <v>24</v>
+      </c>
+      <c r="I341" t="s">
+        <v>27</v>
+      </c>
+      <c r="J341" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
+        <v>2</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F342" t="s">
+        <v>5</v>
+      </c>
+      <c r="G342" t="s">
+        <v>9</v>
+      </c>
+      <c r="H342" t="s">
+        <v>39</v>
+      </c>
+      <c r="I342" t="s">
+        <v>41</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>2</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F343" t="s">
+        <v>5</v>
+      </c>
+      <c r="G343" t="s">
+        <v>9</v>
+      </c>
+      <c r="H343" t="s">
+        <v>40</v>
+      </c>
+      <c r="I343" t="s">
+        <v>44</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>2</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F344" t="s">
+        <v>5</v>
+      </c>
+      <c r="G344" t="s">
+        <v>10</v>
+      </c>
+      <c r="H344" t="s">
+        <v>45</v>
+      </c>
+      <c r="I344" t="s">
+        <v>48</v>
+      </c>
+      <c r="J344" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>2</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F345" t="s">
+        <v>5</v>
+      </c>
+      <c r="G345" t="s">
+        <v>10</v>
+      </c>
+      <c r="H345" t="s">
+        <v>46</v>
+      </c>
+      <c r="I345" t="s">
+        <v>49</v>
+      </c>
+      <c r="J345" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D346" t="s">
+        <v>2</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F346" t="s">
+        <v>5</v>
+      </c>
+      <c r="G346" t="s">
+        <v>11</v>
+      </c>
+      <c r="H346" t="s">
+        <v>51</v>
+      </c>
+      <c r="I346" t="s">
+        <v>53</v>
+      </c>
+      <c r="J346" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
+        <v>2</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F347" t="s">
+        <v>5</v>
+      </c>
+      <c r="G347" t="s">
+        <v>11</v>
+      </c>
+      <c r="H347" t="s">
+        <v>52</v>
+      </c>
+      <c r="I347" t="s">
+        <v>55</v>
+      </c>
+      <c r="J347" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D348" t="s">
+        <v>2</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F348" t="s">
+        <v>5</v>
+      </c>
+      <c r="G348" t="s">
+        <v>12</v>
+      </c>
+      <c r="H348" t="s">
+        <v>57</v>
+      </c>
+      <c r="I348" t="s">
+        <v>59</v>
+      </c>
+      <c r="J348" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D349" t="s">
+        <v>2</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F349" t="s">
+        <v>5</v>
+      </c>
+      <c r="G349" t="s">
+        <v>12</v>
+      </c>
+      <c r="H349" t="s">
+        <v>58</v>
+      </c>
+      <c r="I349" t="s">
+        <v>61</v>
+      </c>
+      <c r="J349" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>2</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F350" t="s">
+        <v>5</v>
+      </c>
+      <c r="G350" t="s">
+        <v>13</v>
+      </c>
+      <c r="H350" t="s">
+        <v>63</v>
+      </c>
+      <c r="I350" t="s">
+        <v>65</v>
+      </c>
+      <c r="J350" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D351" t="s">
+        <v>2</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F351" t="s">
+        <v>5</v>
+      </c>
+      <c r="G351" t="s">
+        <v>13</v>
+      </c>
+      <c r="H351" t="s">
+        <v>64</v>
+      </c>
+      <c r="I351" t="s">
+        <v>67</v>
+      </c>
+      <c r="J351" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J352" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J353" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J354" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J355" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J356" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J357" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J358" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J359" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J360" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J361" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J362" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J363" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J364" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J365" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J366" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J367" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J368" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J369" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J370" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J371" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J372" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J373" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J374" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J375" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J376" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J377" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J378" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J379" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J380" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J381" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J382" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B708988F-99B1-41CB-BFD9-7BBC3ECAB1C9}">
+  <dimension ref="B3:D167"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>240</v>
+      </c>
+      <c r="D83" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>152</v>
+      </c>
+      <c r="D97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>241</v>
+      </c>
+      <c r="D103" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>242</v>
+      </c>
+      <c r="D104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>245</v>
+      </c>
+      <c r="D107" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>246</v>
+      </c>
+      <c r="D108" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>247</v>
+      </c>
+      <c r="D109" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>248</v>
+      </c>
+      <c r="D110" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>249</v>
+      </c>
+      <c r="D111" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>250</v>
+      </c>
+      <c r="D112" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>251</v>
+      </c>
+      <c r="D113" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>252</v>
+      </c>
+      <c r="D114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>253</v>
+      </c>
+      <c r="D115" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>254</v>
+      </c>
+      <c r="D116" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>109</v>
+      </c>
+      <c r="D117" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>110</v>
+      </c>
+      <c r="D118" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>115</v>
+      </c>
+      <c r="D123" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>255</v>
+      </c>
+      <c r="D153" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>256</v>
+      </c>
+      <c r="D154" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="41aecc27-042c-4280-97ae-af7367c3d3ae" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009D229BCFD6B003499ECED8BE1E366B98" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1ba4589df56e027d9a49da74baaac0e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="41aecc27-042c-4280-97ae-af7367c3d3ae" xmlns:ns4="c5c8642d-64a8-404e-81db-89e44ea21f94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="859b0feb2770f4832dfb191421746eed" ns3:_="" ns4:_="">
     <xsd:import namespace="41aecc27-042c-4280-97ae-af7367c3d3ae"/>
@@ -1825,24 +10168,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62C42C5-2D5A-47A9-BA25-A59C75A310A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="41aecc27-042c-4280-97ae-af7367c3d3ae" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FE403CA-C595-44AE-A697-640413CE49A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c5c8642d-64a8-404e-81db-89e44ea21f94"/>
+    <ds:schemaRef ds:uri="41aecc27-042c-4280-97ae-af7367c3d3ae"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0428E03-EA6D-4286-95DF-CB0158BEBF69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1859,29 +10210,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62C42C5-2D5A-47A9-BA25-A59C75A310A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FE403CA-C595-44AE-A697-640413CE49A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c5c8642d-64a8-404e-81db-89e44ea21f94"/>
-    <ds:schemaRef ds:uri="41aecc27-042c-4280-97ae-af7367c3d3ae"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/automatedExcel/VALIDACION DE CAMPOS.xlsx
+++ b/automatedExcel/VALIDACION DE CAMPOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi_jh\PythonProjects\cnelSapWebMidd\automatedExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PythonProjects\cnelSapWebMidd\automatedExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25DE2A-CBB3-4AA9-8254-EBF19BA8FABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B4EF81-7168-45C5-9E96-8F35DE79C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F968AD1B-773D-4E14-9609-13853A0F6A9B}"/>
   </bookViews>
@@ -16,6 +16,10 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja3!$B$2:$P$167</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="271">
   <si>
     <t>DCDE</t>
   </si>
@@ -871,7 +875,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -890,6 +894,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -903,17 +913,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1245,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C65D7-C7E8-49C9-B484-D89C17028A87}">
   <dimension ref="A1:J382"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A337" sqref="A337:A382"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1872,7 @@
         <v>77</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4083,7 +4105,7 @@
         <v>77</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -8826,6 +8848,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J382" xr:uid="{2C3C65D7-C7E8-49C9-B484-D89C17028A87}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -8834,39 +8857,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B708988F-99B1-41CB-BFD9-7BBC3ECAB1C9}">
-  <dimension ref="B3:D167"/>
+  <dimension ref="A2:M167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="B15" sqref="B15:B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>182</v>
       </c>
       <c r="D3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="F3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>183</v>
       </c>
       <c r="D4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="F4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" t="s">
+        <v>270</v>
+      </c>
+      <c r="L4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>184</v>
       </c>
       <c r="D5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K5" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -8876,8 +9004,32 @@
       <c r="D6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>186</v>
       </c>
@@ -8887,8 +9039,32 @@
       <c r="D7" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>187</v>
       </c>
@@ -8898,8 +9074,32 @@
       <c r="D8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>188</v>
       </c>
@@ -8909,8 +9109,32 @@
       <c r="D9" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>189</v>
       </c>
@@ -8920,32 +9144,128 @@
       <c r="D10" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>190</v>
       </c>
       <c r="D11" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>191</v>
       </c>
       <c r="D12" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>192</v>
       </c>
       <c r="D13" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>193</v>
       </c>
@@ -8955,182 +9275,599 @@
       <c r="D14" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>175</v>
       </c>
       <c r="D15" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K15" t="s">
+        <v>270</v>
+      </c>
+      <c r="L15" t="s">
+        <v>270</v>
+      </c>
+      <c r="M15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>176</v>
       </c>
       <c r="D16" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J16" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" t="s">
+        <v>270</v>
+      </c>
+      <c r="L16" t="s">
+        <v>270</v>
+      </c>
+      <c r="M16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>167</v>
       </c>
       <c r="D17" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J17" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" t="s">
+        <v>270</v>
+      </c>
+      <c r="L17" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I18" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I19" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" t="s">
+        <v>270</v>
+      </c>
+      <c r="J22" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" t="s">
+        <v>270</v>
+      </c>
+      <c r="L22" t="s">
+        <v>270</v>
+      </c>
+      <c r="M22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H23" t="s">
+        <v>270</v>
+      </c>
+      <c r="J23" t="s">
+        <v>270</v>
+      </c>
+      <c r="K23" t="s">
+        <v>270</v>
+      </c>
+      <c r="L23" t="s">
+        <v>270</v>
+      </c>
+      <c r="M23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H24" t="s">
+        <v>270</v>
+      </c>
+      <c r="J24" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" t="s">
+        <v>270</v>
+      </c>
+      <c r="L24" t="s">
+        <v>270</v>
+      </c>
+      <c r="M24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" t="s">
+        <v>270</v>
+      </c>
+      <c r="H25" t="s">
+        <v>270</v>
+      </c>
+      <c r="J25" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" t="s">
+        <v>270</v>
+      </c>
+      <c r="L25" t="s">
+        <v>270</v>
+      </c>
+      <c r="M25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" t="s">
+        <v>270</v>
+      </c>
+      <c r="J26" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" t="s">
+        <v>270</v>
+      </c>
+      <c r="L26" t="s">
+        <v>270</v>
+      </c>
+      <c r="M26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27" t="s">
+        <v>270</v>
+      </c>
+      <c r="H27" t="s">
+        <v>270</v>
+      </c>
+      <c r="J27" t="s">
+        <v>270</v>
+      </c>
+      <c r="K27" t="s">
+        <v>270</v>
+      </c>
+      <c r="L27" t="s">
+        <v>270</v>
+      </c>
+      <c r="M27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>270</v>
+      </c>
+      <c r="H28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>270</v>
+      </c>
+      <c r="M29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" t="s">
+        <v>270</v>
+      </c>
+      <c r="H31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>270</v>
+      </c>
+      <c r="H32" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" t="s">
+        <v>270</v>
+      </c>
+      <c r="H33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>270</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>207</v>
       </c>
@@ -9215,724 +9952,2759 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>229</v>
       </c>
       <c r="D70" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>270</v>
+      </c>
+      <c r="G70" t="s">
+        <v>270</v>
+      </c>
+      <c r="H70" t="s">
+        <v>270</v>
+      </c>
+      <c r="I70" t="s">
+        <v>270</v>
+      </c>
+      <c r="J70" t="s">
+        <v>270</v>
+      </c>
+      <c r="K70" t="s">
+        <v>270</v>
+      </c>
+      <c r="L70" t="s">
+        <v>270</v>
+      </c>
+      <c r="M70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>230</v>
       </c>
       <c r="D71" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>270</v>
+      </c>
+      <c r="G71" t="s">
+        <v>270</v>
+      </c>
+      <c r="H71" t="s">
+        <v>270</v>
+      </c>
+      <c r="I71" t="s">
+        <v>270</v>
+      </c>
+      <c r="J71" t="s">
+        <v>270</v>
+      </c>
+      <c r="K71" t="s">
+        <v>270</v>
+      </c>
+      <c r="L71" t="s">
+        <v>270</v>
+      </c>
+      <c r="M71" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>231</v>
       </c>
       <c r="D72" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>270</v>
+      </c>
+      <c r="G72" t="s">
+        <v>270</v>
+      </c>
+      <c r="H72" t="s">
+        <v>270</v>
+      </c>
+      <c r="I72" t="s">
+        <v>270</v>
+      </c>
+      <c r="J72" t="s">
+        <v>270</v>
+      </c>
+      <c r="K72" t="s">
+        <v>270</v>
+      </c>
+      <c r="L72" t="s">
+        <v>270</v>
+      </c>
+      <c r="M72" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>232</v>
       </c>
       <c r="D73" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>270</v>
+      </c>
+      <c r="G73" t="s">
+        <v>270</v>
+      </c>
+      <c r="H73" t="s">
+        <v>270</v>
+      </c>
+      <c r="I73" t="s">
+        <v>270</v>
+      </c>
+      <c r="J73" t="s">
+        <v>270</v>
+      </c>
+      <c r="K73" t="s">
+        <v>270</v>
+      </c>
+      <c r="L73" t="s">
+        <v>270</v>
+      </c>
+      <c r="M73" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>233</v>
       </c>
       <c r="D74" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>270</v>
+      </c>
+      <c r="G74" t="s">
+        <v>270</v>
+      </c>
+      <c r="H74" t="s">
+        <v>270</v>
+      </c>
+      <c r="I74" t="s">
+        <v>270</v>
+      </c>
+      <c r="J74" t="s">
+        <v>270</v>
+      </c>
+      <c r="K74" t="s">
+        <v>270</v>
+      </c>
+      <c r="L74" t="s">
+        <v>270</v>
+      </c>
+      <c r="M74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>234</v>
       </c>
       <c r="D75" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>270</v>
+      </c>
+      <c r="G75" t="s">
+        <v>270</v>
+      </c>
+      <c r="H75" t="s">
+        <v>270</v>
+      </c>
+      <c r="I75" t="s">
+        <v>270</v>
+      </c>
+      <c r="J75" t="s">
+        <v>270</v>
+      </c>
+      <c r="K75" t="s">
+        <v>270</v>
+      </c>
+      <c r="L75" t="s">
+        <v>270</v>
+      </c>
+      <c r="M75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>235</v>
       </c>
       <c r="D76" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>270</v>
+      </c>
+      <c r="G76" t="s">
+        <v>270</v>
+      </c>
+      <c r="H76" t="s">
+        <v>270</v>
+      </c>
+      <c r="I76" t="s">
+        <v>270</v>
+      </c>
+      <c r="J76" t="s">
+        <v>270</v>
+      </c>
+      <c r="K76" t="s">
+        <v>270</v>
+      </c>
+      <c r="L76" t="s">
+        <v>270</v>
+      </c>
+      <c r="M76" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>236</v>
       </c>
       <c r="D77" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>270</v>
+      </c>
+      <c r="G77" t="s">
+        <v>270</v>
+      </c>
+      <c r="H77" t="s">
+        <v>270</v>
+      </c>
+      <c r="I77" t="s">
+        <v>270</v>
+      </c>
+      <c r="J77" t="s">
+        <v>270</v>
+      </c>
+      <c r="K77" t="s">
+        <v>270</v>
+      </c>
+      <c r="L77" t="s">
+        <v>270</v>
+      </c>
+      <c r="M77" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>237</v>
       </c>
       <c r="D78" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>270</v>
+      </c>
+      <c r="G78" t="s">
+        <v>270</v>
+      </c>
+      <c r="H78" t="s">
+        <v>270</v>
+      </c>
+      <c r="I78" t="s">
+        <v>270</v>
+      </c>
+      <c r="J78" t="s">
+        <v>270</v>
+      </c>
+      <c r="K78" t="s">
+        <v>270</v>
+      </c>
+      <c r="L78" t="s">
+        <v>270</v>
+      </c>
+      <c r="M78" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>238</v>
       </c>
       <c r="D79" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>270</v>
+      </c>
+      <c r="G79" t="s">
+        <v>270</v>
+      </c>
+      <c r="H79" t="s">
+        <v>270</v>
+      </c>
+      <c r="I79" t="s">
+        <v>270</v>
+      </c>
+      <c r="J79" t="s">
+        <v>270</v>
+      </c>
+      <c r="K79" t="s">
+        <v>270</v>
+      </c>
+      <c r="L79" t="s">
+        <v>270</v>
+      </c>
+      <c r="M79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>239</v>
       </c>
       <c r="D80" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>270</v>
+      </c>
+      <c r="G80" t="s">
+        <v>270</v>
+      </c>
+      <c r="H80" t="s">
+        <v>270</v>
+      </c>
+      <c r="I80" t="s">
+        <v>270</v>
+      </c>
+      <c r="J80" t="s">
+        <v>270</v>
+      </c>
+      <c r="K80" t="s">
+        <v>270</v>
+      </c>
+      <c r="L80" t="s">
+        <v>270</v>
+      </c>
+      <c r="M80" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>270</v>
+      </c>
+      <c r="H81" t="s">
+        <v>270</v>
+      </c>
+      <c r="I81" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>74</v>
       </c>
       <c r="D82" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>270</v>
+      </c>
+      <c r="G82" t="s">
+        <v>270</v>
+      </c>
+      <c r="H82" t="s">
+        <v>270</v>
+      </c>
+      <c r="I82" t="s">
+        <v>270</v>
+      </c>
+      <c r="J82" t="s">
+        <v>270</v>
+      </c>
+      <c r="K82" t="s">
+        <v>270</v>
+      </c>
+      <c r="L82" t="s">
+        <v>270</v>
+      </c>
+      <c r="M82" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>240</v>
       </c>
       <c r="D83" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>270</v>
+      </c>
+      <c r="G83" t="s">
+        <v>270</v>
+      </c>
+      <c r="H83" t="s">
+        <v>270</v>
+      </c>
+      <c r="I83" t="s">
+        <v>270</v>
+      </c>
+      <c r="J83" t="s">
+        <v>270</v>
+      </c>
+      <c r="K83" t="s">
+        <v>270</v>
+      </c>
+      <c r="L83" t="s">
+        <v>270</v>
+      </c>
+      <c r="M83" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>79</v>
       </c>
       <c r="D84" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>270</v>
+      </c>
+      <c r="G84" t="s">
+        <v>270</v>
+      </c>
+      <c r="H84" t="s">
+        <v>270</v>
+      </c>
+      <c r="I84" t="s">
+        <v>270</v>
+      </c>
+      <c r="J84" t="s">
+        <v>270</v>
+      </c>
+      <c r="K84" t="s">
+        <v>270</v>
+      </c>
+      <c r="L84" t="s">
+        <v>270</v>
+      </c>
+      <c r="M84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>83</v>
       </c>
       <c r="D85" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>270</v>
+      </c>
+      <c r="G85" t="s">
+        <v>270</v>
+      </c>
+      <c r="H85" t="s">
+        <v>270</v>
+      </c>
+      <c r="I85" t="s">
+        <v>270</v>
+      </c>
+      <c r="J85" t="s">
+        <v>270</v>
+      </c>
+      <c r="K85" t="s">
+        <v>270</v>
+      </c>
+      <c r="L85" t="s">
+        <v>270</v>
+      </c>
+      <c r="M85" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>85</v>
       </c>
       <c r="D86" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>270</v>
+      </c>
+      <c r="G86" t="s">
+        <v>270</v>
+      </c>
+      <c r="H86" t="s">
+        <v>270</v>
+      </c>
+      <c r="I86" t="s">
+        <v>270</v>
+      </c>
+      <c r="J86" t="s">
+        <v>270</v>
+      </c>
+      <c r="K86" t="s">
+        <v>270</v>
+      </c>
+      <c r="L86" t="s">
+        <v>270</v>
+      </c>
+      <c r="M86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>91</v>
       </c>
       <c r="D87" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>270</v>
+      </c>
+      <c r="G87" t="s">
+        <v>270</v>
+      </c>
+      <c r="H87" t="s">
+        <v>270</v>
+      </c>
+      <c r="I87" t="s">
+        <v>270</v>
+      </c>
+      <c r="J87" t="s">
+        <v>270</v>
+      </c>
+      <c r="K87" t="s">
+        <v>270</v>
+      </c>
+      <c r="L87" t="s">
+        <v>270</v>
+      </c>
+      <c r="M87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="D88" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>270</v>
+      </c>
+      <c r="G88" t="s">
+        <v>270</v>
+      </c>
+      <c r="H88" t="s">
+        <v>270</v>
+      </c>
+      <c r="I88" t="s">
+        <v>270</v>
+      </c>
+      <c r="J88" t="s">
+        <v>270</v>
+      </c>
+      <c r="K88" t="s">
+        <v>270</v>
+      </c>
+      <c r="L88" t="s">
+        <v>270</v>
+      </c>
+      <c r="M88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>97</v>
       </c>
       <c r="D89" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>270</v>
+      </c>
+      <c r="G89" t="s">
+        <v>270</v>
+      </c>
+      <c r="H89" t="s">
+        <v>270</v>
+      </c>
+      <c r="I89" t="s">
+        <v>270</v>
+      </c>
+      <c r="J89" t="s">
+        <v>270</v>
+      </c>
+      <c r="K89" t="s">
+        <v>270</v>
+      </c>
+      <c r="L89" t="s">
+        <v>270</v>
+      </c>
+      <c r="M89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>95</v>
       </c>
       <c r="D90" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>270</v>
+      </c>
+      <c r="G90" t="s">
+        <v>270</v>
+      </c>
+      <c r="H90" t="s">
+        <v>270</v>
+      </c>
+      <c r="I90" t="s">
+        <v>270</v>
+      </c>
+      <c r="J90" t="s">
+        <v>270</v>
+      </c>
+      <c r="K90" t="s">
+        <v>270</v>
+      </c>
+      <c r="L90" t="s">
+        <v>270</v>
+      </c>
+      <c r="M90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>100</v>
       </c>
       <c r="D91" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>270</v>
+      </c>
+      <c r="G91" t="s">
+        <v>270</v>
+      </c>
+      <c r="H91" t="s">
+        <v>270</v>
+      </c>
+      <c r="I91" t="s">
+        <v>270</v>
+      </c>
+      <c r="J91" t="s">
+        <v>270</v>
+      </c>
+      <c r="K91" t="s">
+        <v>270</v>
+      </c>
+      <c r="L91" t="s">
+        <v>270</v>
+      </c>
+      <c r="M91" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>270</v>
+      </c>
+      <c r="I92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>148</v>
       </c>
       <c r="D93" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>270</v>
+      </c>
+      <c r="G93" t="s">
+        <v>270</v>
+      </c>
+      <c r="H93" t="s">
+        <v>270</v>
+      </c>
+      <c r="I93" t="s">
+        <v>270</v>
+      </c>
+      <c r="J93" t="s">
+        <v>270</v>
+      </c>
+      <c r="K93" t="s">
+        <v>270</v>
+      </c>
+      <c r="L93" t="s">
+        <v>270</v>
+      </c>
+      <c r="M93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>149</v>
       </c>
       <c r="D94" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>270</v>
+      </c>
+      <c r="G94" t="s">
+        <v>270</v>
+      </c>
+      <c r="H94" t="s">
+        <v>270</v>
+      </c>
+      <c r="I94" t="s">
+        <v>270</v>
+      </c>
+      <c r="J94" t="s">
+        <v>270</v>
+      </c>
+      <c r="K94" t="s">
+        <v>270</v>
+      </c>
+      <c r="L94" t="s">
+        <v>270</v>
+      </c>
+      <c r="M94" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>150</v>
       </c>
       <c r="D95" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>270</v>
+      </c>
+      <c r="G95" t="s">
+        <v>270</v>
+      </c>
+      <c r="H95" t="s">
+        <v>270</v>
+      </c>
+      <c r="I95" t="s">
+        <v>270</v>
+      </c>
+      <c r="J95" t="s">
+        <v>270</v>
+      </c>
+      <c r="K95" t="s">
+        <v>270</v>
+      </c>
+      <c r="L95" t="s">
+        <v>270</v>
+      </c>
+      <c r="M95" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>151</v>
       </c>
       <c r="D96" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>270</v>
+      </c>
+      <c r="G96" t="s">
+        <v>270</v>
+      </c>
+      <c r="H96" t="s">
+        <v>270</v>
+      </c>
+      <c r="I96" t="s">
+        <v>270</v>
+      </c>
+      <c r="J96" t="s">
+        <v>270</v>
+      </c>
+      <c r="K96" t="s">
+        <v>270</v>
+      </c>
+      <c r="L96" t="s">
+        <v>270</v>
+      </c>
+      <c r="M96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>152</v>
       </c>
       <c r="D97" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>270</v>
+      </c>
+      <c r="G97" t="s">
+        <v>270</v>
+      </c>
+      <c r="H97" t="s">
+        <v>270</v>
+      </c>
+      <c r="I97" t="s">
+        <v>270</v>
+      </c>
+      <c r="J97" t="s">
+        <v>270</v>
+      </c>
+      <c r="K97" t="s">
+        <v>270</v>
+      </c>
+      <c r="L97" t="s">
+        <v>270</v>
+      </c>
+      <c r="M97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>153</v>
       </c>
       <c r="D98" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>270</v>
+      </c>
+      <c r="G98" t="s">
+        <v>270</v>
+      </c>
+      <c r="H98" t="s">
+        <v>270</v>
+      </c>
+      <c r="I98" t="s">
+        <v>270</v>
+      </c>
+      <c r="J98" t="s">
+        <v>270</v>
+      </c>
+      <c r="K98" t="s">
+        <v>270</v>
+      </c>
+      <c r="L98" t="s">
+        <v>270</v>
+      </c>
+      <c r="M98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>154</v>
       </c>
       <c r="D99" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>270</v>
+      </c>
+      <c r="G99" t="s">
+        <v>270</v>
+      </c>
+      <c r="H99" t="s">
+        <v>270</v>
+      </c>
+      <c r="I99" t="s">
+        <v>270</v>
+      </c>
+      <c r="J99" t="s">
+        <v>270</v>
+      </c>
+      <c r="K99" t="s">
+        <v>270</v>
+      </c>
+      <c r="L99" t="s">
+        <v>270</v>
+      </c>
+      <c r="M99" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>155</v>
       </c>
       <c r="D100" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>270</v>
+      </c>
+      <c r="G100" t="s">
+        <v>270</v>
+      </c>
+      <c r="H100" t="s">
+        <v>270</v>
+      </c>
+      <c r="I100" t="s">
+        <v>270</v>
+      </c>
+      <c r="J100" t="s">
+        <v>270</v>
+      </c>
+      <c r="K100" t="s">
+        <v>270</v>
+      </c>
+      <c r="L100" t="s">
+        <v>270</v>
+      </c>
+      <c r="M100" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>156</v>
       </c>
       <c r="D101" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>270</v>
+      </c>
+      <c r="G101" t="s">
+        <v>270</v>
+      </c>
+      <c r="H101" t="s">
+        <v>270</v>
+      </c>
+      <c r="I101" t="s">
+        <v>270</v>
+      </c>
+      <c r="J101" t="s">
+        <v>270</v>
+      </c>
+      <c r="K101" t="s">
+        <v>270</v>
+      </c>
+      <c r="L101" t="s">
+        <v>270</v>
+      </c>
+      <c r="M101" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>157</v>
       </c>
       <c r="D102" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>270</v>
+      </c>
+      <c r="G102" t="s">
+        <v>270</v>
+      </c>
+      <c r="H102" t="s">
+        <v>270</v>
+      </c>
+      <c r="I102" t="s">
+        <v>270</v>
+      </c>
+      <c r="J102" t="s">
+        <v>270</v>
+      </c>
+      <c r="K102" t="s">
+        <v>270</v>
+      </c>
+      <c r="L102" t="s">
+        <v>270</v>
+      </c>
+      <c r="M102" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>241</v>
       </c>
       <c r="D103" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>270</v>
+      </c>
+      <c r="G103" t="s">
+        <v>270</v>
+      </c>
+      <c r="H103" t="s">
+        <v>270</v>
+      </c>
+      <c r="I103" t="s">
+        <v>270</v>
+      </c>
+      <c r="J103" t="s">
+        <v>270</v>
+      </c>
+      <c r="K103" t="s">
+        <v>270</v>
+      </c>
+      <c r="L103" t="s">
+        <v>270</v>
+      </c>
+      <c r="M103" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>242</v>
       </c>
       <c r="D104" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>270</v>
+      </c>
+      <c r="G104" t="s">
+        <v>270</v>
+      </c>
+      <c r="H104" t="s">
+        <v>270</v>
+      </c>
+      <c r="I104" t="s">
+        <v>270</v>
+      </c>
+      <c r="J104" t="s">
+        <v>270</v>
+      </c>
+      <c r="K104" t="s">
+        <v>270</v>
+      </c>
+      <c r="L104" t="s">
+        <v>270</v>
+      </c>
+      <c r="M104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>243</v>
       </c>
       <c r="D105" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>270</v>
+      </c>
+      <c r="G105" t="s">
+        <v>270</v>
+      </c>
+      <c r="H105" t="s">
+        <v>270</v>
+      </c>
+      <c r="I105" t="s">
+        <v>270</v>
+      </c>
+      <c r="J105" t="s">
+        <v>270</v>
+      </c>
+      <c r="K105" t="s">
+        <v>270</v>
+      </c>
+      <c r="L105" t="s">
+        <v>270</v>
+      </c>
+      <c r="M105" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>244</v>
       </c>
       <c r="D106" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>270</v>
+      </c>
+      <c r="G106" t="s">
+        <v>270</v>
+      </c>
+      <c r="H106" t="s">
+        <v>270</v>
+      </c>
+      <c r="I106" t="s">
+        <v>270</v>
+      </c>
+      <c r="J106" t="s">
+        <v>270</v>
+      </c>
+      <c r="K106" t="s">
+        <v>270</v>
+      </c>
+      <c r="L106" t="s">
+        <v>270</v>
+      </c>
+      <c r="M106" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>245</v>
       </c>
       <c r="D107" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>270</v>
+      </c>
+      <c r="G107" t="s">
+        <v>270</v>
+      </c>
+      <c r="H107" t="s">
+        <v>270</v>
+      </c>
+      <c r="I107" t="s">
+        <v>270</v>
+      </c>
+      <c r="J107" t="s">
+        <v>270</v>
+      </c>
+      <c r="K107" t="s">
+        <v>270</v>
+      </c>
+      <c r="L107" t="s">
+        <v>270</v>
+      </c>
+      <c r="M107" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>246</v>
       </c>
       <c r="D108" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>270</v>
+      </c>
+      <c r="G108" t="s">
+        <v>270</v>
+      </c>
+      <c r="H108" t="s">
+        <v>270</v>
+      </c>
+      <c r="I108" t="s">
+        <v>270</v>
+      </c>
+      <c r="J108" t="s">
+        <v>270</v>
+      </c>
+      <c r="K108" t="s">
+        <v>270</v>
+      </c>
+      <c r="L108" t="s">
+        <v>270</v>
+      </c>
+      <c r="M108" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>247</v>
       </c>
       <c r="D109" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>270</v>
+      </c>
+      <c r="G109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H109" t="s">
+        <v>270</v>
+      </c>
+      <c r="I109" t="s">
+        <v>270</v>
+      </c>
+      <c r="J109" t="s">
+        <v>270</v>
+      </c>
+      <c r="K109" t="s">
+        <v>270</v>
+      </c>
+      <c r="L109" t="s">
+        <v>270</v>
+      </c>
+      <c r="M109" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>248</v>
       </c>
       <c r="D110" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>270</v>
+      </c>
+      <c r="G110" t="s">
+        <v>270</v>
+      </c>
+      <c r="H110" t="s">
+        <v>270</v>
+      </c>
+      <c r="I110" t="s">
+        <v>270</v>
+      </c>
+      <c r="J110" t="s">
+        <v>270</v>
+      </c>
+      <c r="K110" t="s">
+        <v>270</v>
+      </c>
+      <c r="L110" t="s">
+        <v>270</v>
+      </c>
+      <c r="M110" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>249</v>
       </c>
       <c r="D111" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>270</v>
+      </c>
+      <c r="G111" t="s">
+        <v>270</v>
+      </c>
+      <c r="H111" t="s">
+        <v>270</v>
+      </c>
+      <c r="I111" t="s">
+        <v>270</v>
+      </c>
+      <c r="J111" t="s">
+        <v>270</v>
+      </c>
+      <c r="K111" t="s">
+        <v>270</v>
+      </c>
+      <c r="L111" t="s">
+        <v>270</v>
+      </c>
+      <c r="M111" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>250</v>
       </c>
       <c r="D112" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>270</v>
+      </c>
+      <c r="G112" t="s">
+        <v>270</v>
+      </c>
+      <c r="H112" t="s">
+        <v>270</v>
+      </c>
+      <c r="I112" t="s">
+        <v>270</v>
+      </c>
+      <c r="J112" t="s">
+        <v>270</v>
+      </c>
+      <c r="K112" t="s">
+        <v>270</v>
+      </c>
+      <c r="L112" t="s">
+        <v>270</v>
+      </c>
+      <c r="M112" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>251</v>
       </c>
       <c r="D113" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>270</v>
+      </c>
+      <c r="G113" t="s">
+        <v>270</v>
+      </c>
+      <c r="H113" t="s">
+        <v>270</v>
+      </c>
+      <c r="I113" t="s">
+        <v>270</v>
+      </c>
+      <c r="J113" t="s">
+        <v>270</v>
+      </c>
+      <c r="K113" t="s">
+        <v>270</v>
+      </c>
+      <c r="L113" t="s">
+        <v>270</v>
+      </c>
+      <c r="M113" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>252</v>
       </c>
       <c r="D114" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>270</v>
+      </c>
+      <c r="G114" t="s">
+        <v>270</v>
+      </c>
+      <c r="H114" t="s">
+        <v>270</v>
+      </c>
+      <c r="I114" t="s">
+        <v>270</v>
+      </c>
+      <c r="J114" t="s">
+        <v>270</v>
+      </c>
+      <c r="K114" t="s">
+        <v>270</v>
+      </c>
+      <c r="L114" t="s">
+        <v>270</v>
+      </c>
+      <c r="M114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>253</v>
       </c>
       <c r="D115" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>270</v>
+      </c>
+      <c r="G115" t="s">
+        <v>270</v>
+      </c>
+      <c r="H115" t="s">
+        <v>270</v>
+      </c>
+      <c r="I115" t="s">
+        <v>270</v>
+      </c>
+      <c r="J115" t="s">
+        <v>270</v>
+      </c>
+      <c r="K115" t="s">
+        <v>270</v>
+      </c>
+      <c r="L115" t="s">
+        <v>270</v>
+      </c>
+      <c r="M115" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>254</v>
       </c>
       <c r="D116" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>270</v>
+      </c>
+      <c r="G116" t="s">
+        <v>270</v>
+      </c>
+      <c r="H116" t="s">
+        <v>270</v>
+      </c>
+      <c r="I116" t="s">
+        <v>270</v>
+      </c>
+      <c r="J116" t="s">
+        <v>270</v>
+      </c>
+      <c r="K116" t="s">
+        <v>270</v>
+      </c>
+      <c r="L116" t="s">
+        <v>270</v>
+      </c>
+      <c r="M116" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>109</v>
       </c>
       <c r="D117" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>270</v>
+      </c>
+      <c r="G117" t="s">
+        <v>270</v>
+      </c>
+      <c r="H117" t="s">
+        <v>270</v>
+      </c>
+      <c r="I117" t="s">
+        <v>270</v>
+      </c>
+      <c r="J117" t="s">
+        <v>270</v>
+      </c>
+      <c r="K117" t="s">
+        <v>270</v>
+      </c>
+      <c r="L117" t="s">
+        <v>270</v>
+      </c>
+      <c r="M117" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>110</v>
       </c>
       <c r="D118" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>270</v>
+      </c>
+      <c r="G118" t="s">
+        <v>270</v>
+      </c>
+      <c r="H118" t="s">
+        <v>270</v>
+      </c>
+      <c r="I118" t="s">
+        <v>270</v>
+      </c>
+      <c r="J118" t="s">
+        <v>270</v>
+      </c>
+      <c r="K118" t="s">
+        <v>270</v>
+      </c>
+      <c r="L118" t="s">
+        <v>270</v>
+      </c>
+      <c r="M118" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>111</v>
       </c>
       <c r="D119" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>270</v>
+      </c>
+      <c r="G119" t="s">
+        <v>270</v>
+      </c>
+      <c r="H119" t="s">
+        <v>270</v>
+      </c>
+      <c r="I119" t="s">
+        <v>270</v>
+      </c>
+      <c r="J119" t="s">
+        <v>270</v>
+      </c>
+      <c r="K119" t="s">
+        <v>270</v>
+      </c>
+      <c r="L119" t="s">
+        <v>270</v>
+      </c>
+      <c r="M119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>112</v>
       </c>
       <c r="D120" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>270</v>
+      </c>
+      <c r="G120" t="s">
+        <v>270</v>
+      </c>
+      <c r="H120" t="s">
+        <v>270</v>
+      </c>
+      <c r="I120" t="s">
+        <v>270</v>
+      </c>
+      <c r="J120" t="s">
+        <v>270</v>
+      </c>
+      <c r="K120" t="s">
+        <v>270</v>
+      </c>
+      <c r="L120" t="s">
+        <v>270</v>
+      </c>
+      <c r="M120" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>113</v>
       </c>
       <c r="D121" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>270</v>
+      </c>
+      <c r="G121" t="s">
+        <v>270</v>
+      </c>
+      <c r="H121" t="s">
+        <v>270</v>
+      </c>
+      <c r="I121" t="s">
+        <v>270</v>
+      </c>
+      <c r="J121" t="s">
+        <v>270</v>
+      </c>
+      <c r="K121" t="s">
+        <v>270</v>
+      </c>
+      <c r="L121" t="s">
+        <v>270</v>
+      </c>
+      <c r="M121" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>114</v>
       </c>
       <c r="D122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>270</v>
+      </c>
+      <c r="G122" t="s">
+        <v>270</v>
+      </c>
+      <c r="H122" t="s">
+        <v>270</v>
+      </c>
+      <c r="I122" t="s">
+        <v>270</v>
+      </c>
+      <c r="J122" t="s">
+        <v>270</v>
+      </c>
+      <c r="K122" t="s">
+        <v>270</v>
+      </c>
+      <c r="L122" t="s">
+        <v>270</v>
+      </c>
+      <c r="M122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>115</v>
       </c>
       <c r="D123" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>270</v>
+      </c>
+      <c r="G123" t="s">
+        <v>270</v>
+      </c>
+      <c r="H123" t="s">
+        <v>270</v>
+      </c>
+      <c r="I123" t="s">
+        <v>270</v>
+      </c>
+      <c r="J123" t="s">
+        <v>270</v>
+      </c>
+      <c r="K123" t="s">
+        <v>270</v>
+      </c>
+      <c r="L123" t="s">
+        <v>270</v>
+      </c>
+      <c r="M123" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>159</v>
       </c>
       <c r="D124" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>270</v>
+      </c>
+      <c r="G124" t="s">
+        <v>270</v>
+      </c>
+      <c r="H124" t="s">
+        <v>270</v>
+      </c>
+      <c r="I124" t="s">
+        <v>270</v>
+      </c>
+      <c r="J124" t="s">
+        <v>270</v>
+      </c>
+      <c r="K124" t="s">
+        <v>270</v>
+      </c>
+      <c r="L124" t="s">
+        <v>270</v>
+      </c>
+      <c r="M124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>160</v>
       </c>
       <c r="D125" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>270</v>
+      </c>
+      <c r="G125" t="s">
+        <v>270</v>
+      </c>
+      <c r="H125" t="s">
+        <v>270</v>
+      </c>
+      <c r="I125" t="s">
+        <v>270</v>
+      </c>
+      <c r="J125" t="s">
+        <v>270</v>
+      </c>
+      <c r="K125" t="s">
+        <v>270</v>
+      </c>
+      <c r="L125" t="s">
+        <v>270</v>
+      </c>
+      <c r="M125" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>161</v>
       </c>
       <c r="D126" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>270</v>
+      </c>
+      <c r="G126" t="s">
+        <v>270</v>
+      </c>
+      <c r="H126" t="s">
+        <v>270</v>
+      </c>
+      <c r="I126" t="s">
+        <v>270</v>
+      </c>
+      <c r="J126" t="s">
+        <v>270</v>
+      </c>
+      <c r="K126" t="s">
+        <v>270</v>
+      </c>
+      <c r="L126" t="s">
+        <v>270</v>
+      </c>
+      <c r="M126" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>162</v>
       </c>
       <c r="D127" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>270</v>
+      </c>
+      <c r="G127" t="s">
+        <v>270</v>
+      </c>
+      <c r="H127" t="s">
+        <v>270</v>
+      </c>
+      <c r="I127" t="s">
+        <v>270</v>
+      </c>
+      <c r="J127" t="s">
+        <v>270</v>
+      </c>
+      <c r="K127" t="s">
+        <v>270</v>
+      </c>
+      <c r="L127" t="s">
+        <v>270</v>
+      </c>
+      <c r="M127" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>163</v>
       </c>
       <c r="D128" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>270</v>
+      </c>
+      <c r="G128" t="s">
+        <v>270</v>
+      </c>
+      <c r="H128" t="s">
+        <v>270</v>
+      </c>
+      <c r="I128" t="s">
+        <v>270</v>
+      </c>
+      <c r="J128" t="s">
+        <v>270</v>
+      </c>
+      <c r="K128" t="s">
+        <v>270</v>
+      </c>
+      <c r="L128" t="s">
+        <v>270</v>
+      </c>
+      <c r="M128" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>164</v>
       </c>
       <c r="D129" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>270</v>
+      </c>
+      <c r="G129" t="s">
+        <v>270</v>
+      </c>
+      <c r="H129" t="s">
+        <v>270</v>
+      </c>
+      <c r="I129" t="s">
+        <v>270</v>
+      </c>
+      <c r="J129" t="s">
+        <v>270</v>
+      </c>
+      <c r="K129" t="s">
+        <v>270</v>
+      </c>
+      <c r="L129" t="s">
+        <v>270</v>
+      </c>
+      <c r="M129" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>165</v>
       </c>
       <c r="D130" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>270</v>
+      </c>
+      <c r="G130" t="s">
+        <v>270</v>
+      </c>
+      <c r="H130" t="s">
+        <v>270</v>
+      </c>
+      <c r="I130" t="s">
+        <v>270</v>
+      </c>
+      <c r="J130" t="s">
+        <v>270</v>
+      </c>
+      <c r="K130" t="s">
+        <v>270</v>
+      </c>
+      <c r="L130" t="s">
+        <v>270</v>
+      </c>
+      <c r="M130" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>270</v>
+      </c>
+      <c r="G131" t="s">
+        <v>270</v>
+      </c>
+      <c r="H131" t="s">
+        <v>270</v>
+      </c>
+      <c r="I131" t="s">
+        <v>270</v>
+      </c>
+      <c r="J131" t="s">
+        <v>270</v>
+      </c>
+      <c r="K131" t="s">
+        <v>270</v>
+      </c>
+      <c r="L131" t="s">
+        <v>270</v>
+      </c>
+      <c r="M131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>270</v>
+      </c>
+      <c r="G132" t="s">
+        <v>270</v>
+      </c>
+      <c r="H132" t="s">
+        <v>270</v>
+      </c>
+      <c r="I132" t="s">
+        <v>270</v>
+      </c>
+      <c r="J132" t="s">
+        <v>270</v>
+      </c>
+      <c r="K132" t="s">
+        <v>270</v>
+      </c>
+      <c r="L132" t="s">
+        <v>270</v>
+      </c>
+      <c r="M132" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>270</v>
+      </c>
+      <c r="G133" t="s">
+        <v>270</v>
+      </c>
+      <c r="H133" t="s">
+        <v>270</v>
+      </c>
+      <c r="I133" t="s">
+        <v>270</v>
+      </c>
+      <c r="J133" t="s">
+        <v>270</v>
+      </c>
+      <c r="K133" t="s">
+        <v>270</v>
+      </c>
+      <c r="L133" t="s">
+        <v>270</v>
+      </c>
+      <c r="M133" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>270</v>
+      </c>
+      <c r="G134" t="s">
+        <v>270</v>
+      </c>
+      <c r="H134" t="s">
+        <v>270</v>
+      </c>
+      <c r="I134" t="s">
+        <v>270</v>
+      </c>
+      <c r="J134" t="s">
+        <v>270</v>
+      </c>
+      <c r="K134" t="s">
+        <v>270</v>
+      </c>
+      <c r="L134" t="s">
+        <v>270</v>
+      </c>
+      <c r="M134" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>270</v>
+      </c>
+      <c r="G135" t="s">
+        <v>270</v>
+      </c>
+      <c r="H135" t="s">
+        <v>270</v>
+      </c>
+      <c r="I135" t="s">
+        <v>270</v>
+      </c>
+      <c r="J135" t="s">
+        <v>270</v>
+      </c>
+      <c r="K135" t="s">
+        <v>270</v>
+      </c>
+      <c r="L135" t="s">
+        <v>270</v>
+      </c>
+      <c r="M135" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>270</v>
+      </c>
+      <c r="G136" t="s">
+        <v>270</v>
+      </c>
+      <c r="H136" t="s">
+        <v>270</v>
+      </c>
+      <c r="I136" t="s">
+        <v>270</v>
+      </c>
+      <c r="J136" t="s">
+        <v>270</v>
+      </c>
+      <c r="K136" t="s">
+        <v>270</v>
+      </c>
+      <c r="L136" t="s">
+        <v>270</v>
+      </c>
+      <c r="M136" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>270</v>
+      </c>
+      <c r="G137" t="s">
+        <v>270</v>
+      </c>
+      <c r="H137" t="s">
+        <v>270</v>
+      </c>
+      <c r="I137" t="s">
+        <v>270</v>
+      </c>
+      <c r="J137" t="s">
+        <v>270</v>
+      </c>
+      <c r="K137" t="s">
+        <v>270</v>
+      </c>
+      <c r="L137" t="s">
+        <v>270</v>
+      </c>
+      <c r="M137" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>270</v>
+      </c>
+      <c r="G138" t="s">
+        <v>270</v>
+      </c>
+      <c r="H138" t="s">
+        <v>270</v>
+      </c>
+      <c r="I138" t="s">
+        <v>270</v>
+      </c>
+      <c r="J138" t="s">
+        <v>270</v>
+      </c>
+      <c r="K138" t="s">
+        <v>270</v>
+      </c>
+      <c r="L138" t="s">
+        <v>270</v>
+      </c>
+      <c r="M138" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>270</v>
+      </c>
+      <c r="G139" t="s">
+        <v>270</v>
+      </c>
+      <c r="H139" t="s">
+        <v>270</v>
+      </c>
+      <c r="I139" t="s">
+        <v>270</v>
+      </c>
+      <c r="J139" t="s">
+        <v>270</v>
+      </c>
+      <c r="K139" t="s">
+        <v>270</v>
+      </c>
+      <c r="L139" t="s">
+        <v>270</v>
+      </c>
+      <c r="M139" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>270</v>
+      </c>
+      <c r="G140" t="s">
+        <v>270</v>
+      </c>
+      <c r="H140" t="s">
+        <v>270</v>
+      </c>
+      <c r="I140" t="s">
+        <v>270</v>
+      </c>
+      <c r="J140" t="s">
+        <v>270</v>
+      </c>
+      <c r="K140" t="s">
+        <v>270</v>
+      </c>
+      <c r="L140" t="s">
+        <v>270</v>
+      </c>
+      <c r="M140" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>270</v>
+      </c>
+      <c r="G141" t="s">
+        <v>270</v>
+      </c>
+      <c r="H141" t="s">
+        <v>270</v>
+      </c>
+      <c r="I141" t="s">
+        <v>270</v>
+      </c>
+      <c r="J141" t="s">
+        <v>270</v>
+      </c>
+      <c r="K141" t="s">
+        <v>270</v>
+      </c>
+      <c r="L141" t="s">
+        <v>270</v>
+      </c>
+      <c r="M141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>270</v>
+      </c>
+      <c r="G142" t="s">
+        <v>270</v>
+      </c>
+      <c r="H142" t="s">
+        <v>270</v>
+      </c>
+      <c r="I142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J142" t="s">
+        <v>270</v>
+      </c>
+      <c r="K142" t="s">
+        <v>270</v>
+      </c>
+      <c r="L142" t="s">
+        <v>270</v>
+      </c>
+      <c r="M142" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>270</v>
+      </c>
+      <c r="G143" t="s">
+        <v>270</v>
+      </c>
+      <c r="H143" t="s">
+        <v>270</v>
+      </c>
+      <c r="I143" t="s">
+        <v>270</v>
+      </c>
+      <c r="J143" t="s">
+        <v>270</v>
+      </c>
+      <c r="K143" t="s">
+        <v>270</v>
+      </c>
+      <c r="L143" t="s">
+        <v>270</v>
+      </c>
+      <c r="M143" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>270</v>
+      </c>
+      <c r="G144" t="s">
+        <v>270</v>
+      </c>
+      <c r="H144" t="s">
+        <v>270</v>
+      </c>
+      <c r="I144" t="s">
+        <v>270</v>
+      </c>
+      <c r="J144" t="s">
+        <v>270</v>
+      </c>
+      <c r="K144" t="s">
+        <v>270</v>
+      </c>
+      <c r="L144" t="s">
+        <v>270</v>
+      </c>
+      <c r="M144" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>270</v>
+      </c>
+      <c r="G145" t="s">
+        <v>270</v>
+      </c>
+      <c r="H145" t="s">
+        <v>270</v>
+      </c>
+      <c r="I145" t="s">
+        <v>270</v>
+      </c>
+      <c r="J145" t="s">
+        <v>270</v>
+      </c>
+      <c r="K145" t="s">
+        <v>270</v>
+      </c>
+      <c r="L145" t="s">
+        <v>270</v>
+      </c>
+      <c r="M145" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>270</v>
+      </c>
+      <c r="G146" t="s">
+        <v>270</v>
+      </c>
+      <c r="H146" t="s">
+        <v>270</v>
+      </c>
+      <c r="I146" t="s">
+        <v>270</v>
+      </c>
+      <c r="J146" t="s">
+        <v>270</v>
+      </c>
+      <c r="K146" t="s">
+        <v>270</v>
+      </c>
+      <c r="L146" t="s">
+        <v>270</v>
+      </c>
+      <c r="M146" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>270</v>
+      </c>
+      <c r="G147" t="s">
+        <v>270</v>
+      </c>
+      <c r="H147" t="s">
+        <v>270</v>
+      </c>
+      <c r="I147" t="s">
+        <v>270</v>
+      </c>
+      <c r="J147" t="s">
+        <v>270</v>
+      </c>
+      <c r="K147" t="s">
+        <v>270</v>
+      </c>
+      <c r="L147" t="s">
+        <v>270</v>
+      </c>
+      <c r="M147" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>270</v>
+      </c>
+      <c r="G148" t="s">
+        <v>270</v>
+      </c>
+      <c r="H148" t="s">
+        <v>270</v>
+      </c>
+      <c r="I148" t="s">
+        <v>270</v>
+      </c>
+      <c r="J148" t="s">
+        <v>270</v>
+      </c>
+      <c r="K148" t="s">
+        <v>270</v>
+      </c>
+      <c r="L148" t="s">
+        <v>270</v>
+      </c>
+      <c r="M148" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>270</v>
+      </c>
+      <c r="G149" t="s">
+        <v>270</v>
+      </c>
+      <c r="H149" t="s">
+        <v>270</v>
+      </c>
+      <c r="I149" t="s">
+        <v>270</v>
+      </c>
+      <c r="J149" t="s">
+        <v>270</v>
+      </c>
+      <c r="K149" t="s">
+        <v>270</v>
+      </c>
+      <c r="L149" t="s">
+        <v>270</v>
+      </c>
+      <c r="M149" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>270</v>
+      </c>
+      <c r="G150" t="s">
+        <v>270</v>
+      </c>
+      <c r="H150" t="s">
+        <v>270</v>
+      </c>
+      <c r="I150" t="s">
+        <v>270</v>
+      </c>
+      <c r="J150" t="s">
+        <v>270</v>
+      </c>
+      <c r="K150" t="s">
+        <v>270</v>
+      </c>
+      <c r="L150" t="s">
+        <v>270</v>
+      </c>
+      <c r="M150" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>270</v>
+      </c>
+      <c r="G151" t="s">
+        <v>270</v>
+      </c>
+      <c r="H151" t="s">
+        <v>270</v>
+      </c>
+      <c r="I151" t="s">
+        <v>270</v>
+      </c>
+      <c r="J151" t="s">
+        <v>270</v>
+      </c>
+      <c r="K151" t="s">
+        <v>270</v>
+      </c>
+      <c r="L151" t="s">
+        <v>270</v>
+      </c>
+      <c r="M151" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>270</v>
+      </c>
+      <c r="G152" t="s">
+        <v>270</v>
+      </c>
+      <c r="H152" t="s">
+        <v>270</v>
+      </c>
+      <c r="I152" t="s">
+        <v>270</v>
+      </c>
+      <c r="J152" t="s">
+        <v>270</v>
+      </c>
+      <c r="K152" t="s">
+        <v>270</v>
+      </c>
+      <c r="L152" t="s">
+        <v>270</v>
+      </c>
+      <c r="M152" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>255</v>
       </c>
       <c r="D153" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>270</v>
+      </c>
+      <c r="G153" t="s">
+        <v>270</v>
+      </c>
+      <c r="H153" t="s">
+        <v>270</v>
+      </c>
+      <c r="I153" t="s">
+        <v>270</v>
+      </c>
+      <c r="J153" t="s">
+        <v>270</v>
+      </c>
+      <c r="K153" t="s">
+        <v>270</v>
+      </c>
+      <c r="L153" t="s">
+        <v>270</v>
+      </c>
+      <c r="M153" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>256</v>
       </c>
       <c r="D154" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>270</v>
+      </c>
+      <c r="G154" t="s">
+        <v>270</v>
+      </c>
+      <c r="H154" t="s">
+        <v>270</v>
+      </c>
+      <c r="I154" t="s">
+        <v>270</v>
+      </c>
+      <c r="J154" t="s">
+        <v>270</v>
+      </c>
+      <c r="K154" t="s">
+        <v>270</v>
+      </c>
+      <c r="L154" t="s">
+        <v>270</v>
+      </c>
+      <c r="M154" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>142</v>
       </c>
+      <c r="F167" t="s">
+        <v>270</v>
+      </c>
+      <c r="G167" t="s">
+        <v>270</v>
+      </c>
+      <c r="H167" t="s">
+        <v>270</v>
+      </c>
+      <c r="I167" t="s">
+        <v>270</v>
+      </c>
+      <c r="J167" t="s">
+        <v>270</v>
+      </c>
+      <c r="K167" t="s">
+        <v>270</v>
+      </c>
+      <c r="L167" t="s">
+        <v>270</v>
+      </c>
+      <c r="M167" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:P167" xr:uid="{B708988F-99B1-41CB-BFD9-7BBC3ECAB1C9}"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="41aecc27-042c-4280-97ae-af7367c3d3ae" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="41aecc27-042c-4280-97ae-af7367c3d3ae" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10169,14 +12941,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62C42C5-2D5A-47A9-BA25-A59C75A310A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FE403CA-C595-44AE-A697-640413CE49A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10189,6 +12953,14 @@
     <ds:schemaRef ds:uri="41aecc27-042c-4280-97ae-af7367c3d3ae"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62C42C5-2D5A-47A9-BA25-A59C75A310A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/automatedExcel/VALIDACION DE CAMPOS.xlsx
+++ b/automatedExcel/VALIDACION DE CAMPOS.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PythonProjects\cnelSapWebMidd\automatedExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B4EF81-7168-45C5-9E96-8F35DE79C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8F2525-4474-4968-BF74-BD130BA5CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F968AD1B-773D-4E14-9609-13853A0F6A9B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$382</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja3!$B$2:$P$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja3!$B$2:$N$167</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="272">
   <si>
     <t>DCDE</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>no habilitado</t>
+  </si>
+  <si>
+    <t>PERC</t>
   </si>
 </sst>
 </file>
@@ -1265,6 +1268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C65D7-C7E8-49C9-B484-D89C17028A87}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:J382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8857,22 +8861,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B708988F-99B1-41CB-BFD9-7BBC3ECAB1C9}">
-  <dimension ref="A2:M167"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A2:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B167"/>
+    <sheetView tabSelected="1" topLeftCell="B161" workbookViewId="0">
+      <selection activeCell="N167" sqref="N167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="12" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -8897,8 +8904,11 @@
       <c r="M2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -8929,8 +8939,11 @@
       <c r="M3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -8961,8 +8974,11 @@
       <c r="M4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -8993,8 +9009,11 @@
       <c r="M5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -9028,8 +9047,11 @@
       <c r="M6" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>186</v>
       </c>
@@ -9063,8 +9085,11 @@
       <c r="M7" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>187</v>
       </c>
@@ -9098,8 +9123,11 @@
       <c r="M8" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>188</v>
       </c>
@@ -9133,8 +9161,11 @@
       <c r="M9" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>189</v>
       </c>
@@ -9168,8 +9199,11 @@
       <c r="M10" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>190</v>
       </c>
@@ -9200,8 +9234,11 @@
       <c r="M11" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>191</v>
       </c>
@@ -9232,8 +9269,11 @@
       <c r="M12" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>192</v>
       </c>
@@ -9264,8 +9304,11 @@
       <c r="M13" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>193</v>
       </c>
@@ -9299,8 +9342,11 @@
       <c r="M14" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>175</v>
       </c>
@@ -9331,8 +9377,11 @@
       <c r="M15" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>176</v>
       </c>
@@ -9363,8 +9412,11 @@
       <c r="M16" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>167</v>
       </c>
@@ -9395,8 +9447,11 @@
       <c r="M17" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>170</v>
       </c>
@@ -9404,7 +9459,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>172</v>
       </c>
@@ -9412,17 +9467,17 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -9447,8 +9502,11 @@
       <c r="M22" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -9473,8 +9531,11 @@
       <c r="M23" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -9499,8 +9560,11 @@
       <c r="M24" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -9525,8 +9589,11 @@
       <c r="M25" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -9551,8 +9618,11 @@
       <c r="M26" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -9577,8 +9647,11 @@
       <c r="M27" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -9603,8 +9676,11 @@
       <c r="M28" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -9629,8 +9705,11 @@
       <c r="M29" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>50</v>
       </c>
@@ -9655,8 +9734,11 @@
       <c r="M30" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -9681,8 +9763,11 @@
       <c r="M31" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>56</v>
       </c>
@@ -9707,8 +9792,11 @@
       <c r="M32" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>60</v>
       </c>
@@ -9733,8 +9821,11 @@
       <c r="M33" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>62</v>
       </c>
@@ -9759,8 +9850,11 @@
       <c r="M34" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>66</v>
       </c>
@@ -9785,8 +9879,11 @@
       <c r="M35" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>68</v>
       </c>
@@ -9811,63 +9908,66 @@
       <c r="M36" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>207</v>
       </c>
@@ -9952,32 +10052,32 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>229</v>
       </c>
@@ -10008,8 +10108,11 @@
       <c r="M70" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>230</v>
       </c>
@@ -10040,8 +10143,11 @@
       <c r="M71" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>231</v>
       </c>
@@ -10072,8 +10178,11 @@
       <c r="M72" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>232</v>
       </c>
@@ -10104,8 +10213,11 @@
       <c r="M73" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>233</v>
       </c>
@@ -10136,8 +10248,11 @@
       <c r="M74" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>234</v>
       </c>
@@ -10168,8 +10283,11 @@
       <c r="M75" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>235</v>
       </c>
@@ -10200,8 +10318,11 @@
       <c r="M76" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>236</v>
       </c>
@@ -10232,8 +10353,11 @@
       <c r="M77" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>237</v>
       </c>
@@ -10264,8 +10388,11 @@
       <c r="M78" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>238</v>
       </c>
@@ -10296,8 +10423,11 @@
       <c r="M79" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>239</v>
       </c>
@@ -10328,8 +10458,11 @@
       <c r="M80" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>71</v>
       </c>
@@ -10343,7 +10476,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>74</v>
       </c>
@@ -10374,8 +10507,11 @@
       <c r="M82" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>240</v>
       </c>
@@ -10406,8 +10542,11 @@
       <c r="M83" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>79</v>
       </c>
@@ -10438,8 +10577,11 @@
       <c r="M84" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>83</v>
       </c>
@@ -10470,8 +10612,11 @@
       <c r="M85" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>85</v>
       </c>
@@ -10502,8 +10647,11 @@
       <c r="M86" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>91</v>
       </c>
@@ -10534,8 +10682,11 @@
       <c r="M87" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>89</v>
       </c>
@@ -10566,8 +10717,11 @@
       <c r="M88" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>97</v>
       </c>
@@ -10598,8 +10752,11 @@
       <c r="M89" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>95</v>
       </c>
@@ -10630,8 +10787,11 @@
       <c r="M90" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>100</v>
       </c>
@@ -10662,8 +10822,11 @@
       <c r="M91" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>147</v>
       </c>
@@ -10674,7 +10837,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>148</v>
       </c>
@@ -10705,8 +10868,11 @@
       <c r="M93" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>149</v>
       </c>
@@ -10737,8 +10903,11 @@
       <c r="M94" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>150</v>
       </c>
@@ -10769,8 +10938,11 @@
       <c r="M95" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>151</v>
       </c>
@@ -10801,8 +10973,11 @@
       <c r="M96" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>152</v>
       </c>
@@ -10833,8 +11008,11 @@
       <c r="M97" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>153</v>
       </c>
@@ -10865,8 +11043,11 @@
       <c r="M98" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>154</v>
       </c>
@@ -10897,8 +11078,11 @@
       <c r="M99" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N99" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>155</v>
       </c>
@@ -10929,8 +11113,11 @@
       <c r="M100" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N100" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>156</v>
       </c>
@@ -10961,8 +11148,11 @@
       <c r="M101" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>157</v>
       </c>
@@ -10993,8 +11183,11 @@
       <c r="M102" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N102" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>241</v>
       </c>
@@ -11025,8 +11218,11 @@
       <c r="M103" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>242</v>
       </c>
@@ -11057,8 +11253,11 @@
       <c r="M104" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>243</v>
       </c>
@@ -11089,8 +11288,11 @@
       <c r="M105" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>244</v>
       </c>
@@ -11121,8 +11323,11 @@
       <c r="M106" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>245</v>
       </c>
@@ -11153,8 +11358,11 @@
       <c r="M107" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>246</v>
       </c>
@@ -11185,8 +11393,11 @@
       <c r="M108" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>247</v>
       </c>
@@ -11217,8 +11428,11 @@
       <c r="M109" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>248</v>
       </c>
@@ -11249,8 +11463,11 @@
       <c r="M110" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>249</v>
       </c>
@@ -11281,8 +11498,11 @@
       <c r="M111" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>250</v>
       </c>
@@ -11313,8 +11533,11 @@
       <c r="M112" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>251</v>
       </c>
@@ -11345,8 +11568,11 @@
       <c r="M113" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>252</v>
       </c>
@@ -11377,8 +11603,11 @@
       <c r="M114" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>253</v>
       </c>
@@ -11409,8 +11638,11 @@
       <c r="M115" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N115" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>254</v>
       </c>
@@ -11441,8 +11673,11 @@
       <c r="M116" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N116" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>109</v>
       </c>
@@ -11473,8 +11708,11 @@
       <c r="M117" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N117" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>110</v>
       </c>
@@ -11505,8 +11743,11 @@
       <c r="M118" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>111</v>
       </c>
@@ -11537,8 +11778,11 @@
       <c r="M119" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>112</v>
       </c>
@@ -11569,8 +11813,11 @@
       <c r="M120" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N120" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>113</v>
       </c>
@@ -11601,8 +11848,11 @@
       <c r="M121" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N121" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>114</v>
       </c>
@@ -11633,8 +11883,11 @@
       <c r="M122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>115</v>
       </c>
@@ -11665,8 +11918,11 @@
       <c r="M123" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>159</v>
       </c>
@@ -11697,8 +11953,11 @@
       <c r="M124" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>160</v>
       </c>
@@ -11729,8 +11988,11 @@
       <c r="M125" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N125" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>161</v>
       </c>
@@ -11761,8 +12023,11 @@
       <c r="M126" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N126" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>162</v>
       </c>
@@ -11793,8 +12058,11 @@
       <c r="M127" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N127" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>163</v>
       </c>
@@ -11825,8 +12093,11 @@
       <c r="M128" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N128" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>164</v>
       </c>
@@ -11857,8 +12128,11 @@
       <c r="M129" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N129" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>165</v>
       </c>
@@ -11889,8 +12163,11 @@
       <c r="M130" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N130" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>117</v>
       </c>
@@ -11918,8 +12195,11 @@
       <c r="M131" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>118</v>
       </c>
@@ -11947,8 +12227,11 @@
       <c r="M132" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N132" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>119</v>
       </c>
@@ -11976,8 +12259,11 @@
       <c r="M133" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N133" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>120</v>
       </c>
@@ -12005,8 +12291,11 @@
       <c r="M134" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N134" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>121</v>
       </c>
@@ -12034,8 +12323,11 @@
       <c r="M135" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N135" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>122</v>
       </c>
@@ -12063,8 +12355,11 @@
       <c r="M136" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N136" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>123</v>
       </c>
@@ -12092,8 +12387,11 @@
       <c r="M137" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N137" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>124</v>
       </c>
@@ -12121,8 +12419,11 @@
       <c r="M138" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N138" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>125</v>
       </c>
@@ -12150,8 +12451,11 @@
       <c r="M139" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N139" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>126</v>
       </c>
@@ -12179,8 +12483,11 @@
       <c r="M140" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N140" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>131</v>
       </c>
@@ -12208,8 +12515,11 @@
       <c r="M141" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>132</v>
       </c>
@@ -12237,8 +12547,11 @@
       <c r="M142" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N142" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>133</v>
       </c>
@@ -12266,8 +12579,11 @@
       <c r="M143" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N143" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>134</v>
       </c>
@@ -12295,8 +12611,11 @@
       <c r="M144" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N144" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>135</v>
       </c>
@@ -12324,8 +12643,11 @@
       <c r="M145" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N145" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>136</v>
       </c>
@@ -12353,8 +12675,11 @@
       <c r="M146" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N146" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>137</v>
       </c>
@@ -12382,8 +12707,11 @@
       <c r="M147" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N147" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>138</v>
       </c>
@@ -12411,8 +12739,11 @@
       <c r="M148" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N148" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>139</v>
       </c>
@@ -12440,8 +12771,11 @@
       <c r="M149" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N149" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>140</v>
       </c>
@@ -12469,8 +12803,11 @@
       <c r="M150" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N150" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>129</v>
       </c>
@@ -12498,8 +12835,11 @@
       <c r="M151" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N151" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>130</v>
       </c>
@@ -12527,8 +12867,11 @@
       <c r="M152" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N152" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>255</v>
       </c>
@@ -12559,8 +12902,11 @@
       <c r="M153" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N153" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>256</v>
       </c>
@@ -12591,33 +12937,36 @@
       <c r="M154" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N154" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>262</v>
       </c>
@@ -12682,7 +13031,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:P167" xr:uid="{B708988F-99B1-41CB-BFD9-7BBC3ECAB1C9}"/>
+  <autoFilter ref="B2:N167" xr:uid="{B708988F-99B1-41CB-BFD9-7BBC3ECAB1C9}"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -12691,20 +13040,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="41aecc27-042c-4280-97ae-af7367c3d3ae" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="41aecc27-042c-4280-97ae-af7367c3d3ae" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12941,6 +13290,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62C42C5-2D5A-47A9-BA25-A59C75A310A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FE403CA-C595-44AE-A697-640413CE49A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -12953,14 +13310,6 @@
     <ds:schemaRef ds:uri="41aecc27-042c-4280-97ae-af7367c3d3ae"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62C42C5-2D5A-47A9-BA25-A59C75A310A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
